--- a/data/intermediate/data_awareness_for_hand_scoring_all.xlsx
+++ b/data/intermediate/data_awareness_for_hand_scoring_all.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9047" uniqueCount="4373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9131" uniqueCount="4434">
   <si>
     <t>unique_id</t>
   </si>
@@ -13138,6 +13138,189 @@
   </si>
   <si>
     <t>ja, ich denke dem beobachter sollten manche wesen freundlicher dargesteelllt werden und die bilder sollten mit einem gegenstand assoziiert werden, der normal nicht damit assziiert wird.</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i noticed that you placed alot of the negitive words next to golett </t>
+  </si>
+  <si>
+    <t xml:space="preserve">there were random words, but when golett was on screen it was usually a negative word.  i also think that there were more naturenum_dividenum_dividenum_dividenum_dividenum_divide or positive things next to the grass type pokemon, i cannot remember his name at the moment </t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_11</t>
+  </si>
+  <si>
+    <t>the pictures were appearing in alot of different random spots on the screen.</t>
+  </si>
+  <si>
+    <t>at times i noticed that the same photo or word would appear back to back.</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_12</t>
+  </si>
+  <si>
+    <t>some of the cartoon characters were repeatedly paired with negative pictures and words while others were repeatedly paired with positive pictures and words.</t>
+  </si>
+  <si>
+    <t>some cartoons were paired with negative, some with positive. the words book and pencils seemed to be together a lot. as did the picture of the blowdryer with the word book or the picture of the blowdryer with the picture of the fan.</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_13</t>
+  </si>
+  <si>
+    <t>it seemed like some pictures were given defining attributes of similar caliber such as s 'terrifying' and 'scary'.</t>
+  </si>
+  <si>
+    <t>the same words would often appear in the same place on the screen.</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_14</t>
+  </si>
+  <si>
+    <t>i did not notice anything too out of the ordinary</t>
+  </si>
+  <si>
+    <t>some words or images were consistently placed next to each other when they appeared</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_15</t>
+  </si>
+  <si>
+    <t>iiii noticed that when a picture of a creature would appear then either apositive or negative description word would pop up next to it. ii did not pay  an extreme amount of attention to what the adjectivess were, but ii did notice that these words seemed to be intentionally placed with the pictures.</t>
+  </si>
+  <si>
+    <t>aas previously stated, i noticed that the adjectives were either negative or positive which possibly had an effect on which creatures ii found more appealing.</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_16</t>
+  </si>
+  <si>
+    <t>i didnt, but it seemed they all went in the same order</t>
+  </si>
+  <si>
+    <t>yes they seemed to follow a pattern</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_17</t>
+  </si>
+  <si>
+    <t>i saw nothing out of the ordinary.</t>
+  </si>
+  <si>
+    <t>words with same beginnig letters showed up a lot</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_18</t>
+  </si>
+  <si>
+    <t>ii didn't find anything extremely unordinary, it was just interesting to see how the images were timed out and spread across the screen.</t>
+  </si>
+  <si>
+    <t>i noticed that glasses and the box with the cubes appeared pretty close together systematically.</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_19</t>
+  </si>
+  <si>
+    <t>the important details that pertained to what i was looking for occasionally didn't show up together at the same time as opposed to the others possibly to throw me off</t>
+  </si>
+  <si>
+    <t>yes a bunch of the images shown repeated or were mirrored</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_20</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_21</t>
+  </si>
+  <si>
+    <t>they seemed to be the same words in different positions but some of the combinations of pictures and words were the same and in the same position.</t>
+  </si>
+  <si>
+    <t>like i mentioned earlier, it seemes that some of the words or pictures were more often together at the same time and position on the screen. like pencil and book were in the middle of the screen or the fan and the hairdryer were in the middle in the same position every time it showed up.</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the charracters never appeared without their names but the names appeared without the pictures. </t>
+  </si>
+  <si>
+    <t>sometimes similar items and words appeared together that werent the characters i was supposed to identify</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i didnt notice anything out of the ordinary </t>
+  </si>
+  <si>
+    <t>most of the pictures were the sam elike the hair dryer and glass cup</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when swadloon was presented, unattractive pictures and words with negative connatations appeared with it. when golett was presented, attractive pictures and words with positive connatations appeared. </t>
+  </si>
+  <si>
+    <t>pencil and book appeared together several times.</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no, i did not notice anything out of the ordinary about the way the words were presented at the beginning of the surveillance tasks. </t>
+  </si>
+  <si>
+    <t>it did seem almost like  handful of words and imagies appeared at the same times, such as book and the photo with the hair drier.</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_26</t>
+  </si>
+  <si>
+    <t>frillish looks like berggmite a bit. i didn't notice anything to strange to me.</t>
+  </si>
+  <si>
+    <t>it looked like teh fan would pop up twith the hair dryer a lot.i remember golem appearing next to a picture of a forest but i don't see any correlation.</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_27</t>
+  </si>
+  <si>
+    <t>some of the pictures or words appeared way more than others, the combination of pencil and book appeared a lot and the word book i noticed a lot. also there were a few pictures i was not expecting like the guy over the toilet or the certificate</t>
+  </si>
+  <si>
+    <t>it seemed very systematic with how pencil and book were always together and some words like calming or terrifying were paired with the creatures</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_28</t>
+  </si>
+  <si>
+    <t>some images or words were presented on different locations on the screen while the majority were presented in the middle of the screen. sometimes the target name or image was paired with its nonmatching pair.</t>
+  </si>
+  <si>
+    <t>some names were mixed with non matching images. the target name or image on numerous times showed with its non matching pair.</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_30</t>
+  </si>
+  <si>
+    <t>negative images and words were paired with specific creatures.</t>
+  </si>
+  <si>
+    <t>as previously stated, negative words were paired with specific creatures and positive words and images were paired with specific creatures.</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_31</t>
+  </si>
+  <si>
+    <t>the words seemed to come in the same order. for example, i wouldn't see the target for a while, and then i would see it twice in a row, where one of those times the word was paired with pencil.</t>
+  </si>
+  <si>
+    <t>the target seemed to appear hald the time as a word and half the time with the word and an image. i thought i noticed the targets appeared at the same time in the same way as all the other targets.</t>
   </si>
 </sst>
 </file>
@@ -13519,10 +13702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1458"/>
+  <dimension ref="A1:H1479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1428" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A1447" sqref="A1447"/>
+    <sheetView tabSelected="1" topLeftCell="E1449" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A1459" sqref="A1459:H1479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -51444,6 +51627,552 @@
         <v>23</v>
       </c>
     </row>
+    <row r="1459" spans="1:8">
+      <c r="A1459" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>4374</v>
+      </c>
+      <c r="D1459" t="s">
+        <v>4375</v>
+      </c>
+      <c r="E1459" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1459" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G1459" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1459" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:8">
+      <c r="A1460" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>4377</v>
+      </c>
+      <c r="D1460" t="s">
+        <v>4378</v>
+      </c>
+      <c r="E1460" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1460" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1460" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1460" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:8">
+      <c r="A1461" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>4380</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>4381</v>
+      </c>
+      <c r="E1461" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1461" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G1461" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1461" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:8">
+      <c r="A1462" t="s">
+        <v>4382</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>4383</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>4384</v>
+      </c>
+      <c r="E1462" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1462" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1462" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1462" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:8">
+      <c r="A1463" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>4386</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>4387</v>
+      </c>
+      <c r="E1463" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1463" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1463" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1463" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:8">
+      <c r="A1464" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>4389</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>4390</v>
+      </c>
+      <c r="E1464" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1464" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G1464" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1464" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:8">
+      <c r="A1465" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>4392</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>4393</v>
+      </c>
+      <c r="E1465" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1465" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1465" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1465" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:8">
+      <c r="A1466" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>4395</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>4396</v>
+      </c>
+      <c r="E1466" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1466" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1466" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1466" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:8">
+      <c r="A1467" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>4398</v>
+      </c>
+      <c r="D1467" t="s">
+        <v>4399</v>
+      </c>
+      <c r="E1467" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1467" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1467" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1467" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:8">
+      <c r="A1468" t="s">
+        <v>4400</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>4401</v>
+      </c>
+      <c r="D1468" t="s">
+        <v>4402</v>
+      </c>
+      <c r="E1468" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1468" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1468" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1468" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:8">
+      <c r="A1469" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D1469" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E1469" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1469" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1469" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1469" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:8">
+      <c r="A1470" t="s">
+        <v>4404</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>4405</v>
+      </c>
+      <c r="D1470" t="s">
+        <v>4406</v>
+      </c>
+      <c r="E1470" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1470" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1470" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1470" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:8">
+      <c r="A1471" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>4408</v>
+      </c>
+      <c r="D1471" t="s">
+        <v>4409</v>
+      </c>
+      <c r="E1471" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1471" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1471" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1471" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:8">
+      <c r="A1472" t="s">
+        <v>4410</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>4411</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>4412</v>
+      </c>
+      <c r="E1472" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1472" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1472" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1472" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:8">
+      <c r="A1473" t="s">
+        <v>4413</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>4414</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>4415</v>
+      </c>
+      <c r="E1473" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1473" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G1473" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1473" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:8">
+      <c r="A1474" t="s">
+        <v>4416</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>4417</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>4418</v>
+      </c>
+      <c r="E1474" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1474" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1474" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1474" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:8">
+      <c r="A1475" t="s">
+        <v>4419</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>4420</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>4421</v>
+      </c>
+      <c r="E1475" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1475" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1475" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1475" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:8">
+      <c r="A1476" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>4423</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>4424</v>
+      </c>
+      <c r="E1476" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1476" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G1476" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1476" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:8">
+      <c r="A1477" t="s">
+        <v>4425</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>4426</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>4427</v>
+      </c>
+      <c r="E1477" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1477" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1477" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1477" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:8">
+      <c r="A1478" t="s">
+        <v>4428</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>4429</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>4430</v>
+      </c>
+      <c r="E1478" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1478" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G1478" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1478" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:8">
+      <c r="A1479" t="s">
+        <v>4431</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>4432</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>4433</v>
+      </c>
+      <c r="E1479" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1479" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1479" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1479" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
